--- a/linreg_analysis/linreg.xlsx
+++ b/linreg_analysis/linreg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC9CFC5-54D7-467D-8173-8760ED46E3F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DE65A-AD8D-42C0-9100-F2A67D9297B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$J$55</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$A$1:$A$54</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$D$1:$D$18</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Graphics!$B$1:$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$D$1:$D$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$D$1:$D$18</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$A$1:$A$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
   <si>
     <t>m01</t>
   </si>
@@ -157,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -165,13 +164,171 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,7 +351,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -318,7 +475,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -380,7 +537,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3239,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4681,27 +4838,28 @@
         <v>2.7397269621938464E-3</v>
       </c>
     </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D59">
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="5">
         <f>AVERAGE(I2:I55)</f>
         <v>7.193344534290548E-2</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="6">
         <f>_xlfn.STDEV.S(I2:I55)</f>
         <v>9.1862765934919072E-2</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="7">
         <f>E59/D59</f>
         <v>1.2770522181581998</v>
       </c>
@@ -4713,10 +4871,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76FCD56-F02F-435D-A78D-F55FE0F23D77}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+      <selection activeCell="P14" sqref="P14:X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4724,7 +4882,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -4750,7 +4908,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4769,11 +4927,14 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0.20000000811224466</v>
+      </c>
       <c r="J2">
         <v>0.20000000811224466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4792,11 +4953,14 @@
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="I3">
+        <v>0.19999992966361474</v>
+      </c>
       <c r="J3">
         <v>0.19999992966361474</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4815,11 +4979,14 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>0.20000000000000023</v>
+      </c>
       <c r="J4">
         <v>0.20000000000000023</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4838,11 +5005,14 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0.1999999833873638</v>
+      </c>
       <c r="J5">
         <v>0.1999999833873638</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4861,11 +5031,14 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>0.19999998360305424</v>
+      </c>
       <c r="J6">
         <v>0.19999998360305424</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4884,11 +5057,14 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>0.19999996494552705</v>
+      </c>
       <c r="J7">
         <v>0.19999996494552705</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4907,11 +5083,14 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>0.19999997766440211</v>
+      </c>
       <c r="J8">
         <v>0.19999997766440211</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4930,11 +5109,14 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
       <c r="J9">
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4953,11 +5135,14 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>0.19999998932394489</v>
+      </c>
       <c r="J10">
         <v>0.19999998932394489</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4976,11 +5161,14 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>0.19999999999999946</v>
+      </c>
       <c r="J11">
         <v>0.19999999999999946</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4999,11 +5187,14 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>0.20000002901372618</v>
+      </c>
       <c r="J12">
         <v>0.20000002901372618</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5022,11 +5213,14 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>0.2000000450487332</v>
+      </c>
       <c r="J13">
         <v>0.2000000450487332</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5045,11 +5239,29 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>0.20000004223783407</v>
+      </c>
       <c r="J14">
         <v>0.20000004223783407</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="11"/>
+      <c r="X14" s="12"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5068,11 +5280,41 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>0.2000000209461337</v>
+      </c>
       <c r="J15">
         <v>0.2000000209461337</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="P15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" t="s">
+        <v>30</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5091,8 +5333,38 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>0.20000000576787552</v>
+      </c>
       <c r="J16">
         <v>0.20000000576787552</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.19999999785044373</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>2.7294006998976121E-8</v>
+      </c>
+      <c r="R16" s="14">
+        <v>1.3647003646163071E-7</v>
+      </c>
+      <c r="S16" s="6">
+        <v>1.4864261534793165E-2</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1.085337965710105E-2</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0.73016608539188188</v>
+      </c>
+      <c r="V16" s="6">
+        <v>9.3607664347958698E-4</v>
+      </c>
+      <c r="W16" s="6">
+        <v>6.3156322204699286E-3</v>
+      </c>
+      <c r="X16" s="7">
+        <v>6.7469178559924758</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5114,6 +5386,9 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>0.2</v>
+      </c>
       <c r="J17">
         <v>0.2</v>
       </c>
@@ -5137,6 +5412,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>0.19999999586544814</v>
+      </c>
       <c r="J18">
         <v>0.19999999586544814</v>
       </c>
@@ -5160,46 +5438,55 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>0.19999998572808456</v>
+      </c>
       <c r="J19">
         <v>0.19999998572808456</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
         <f>AVERAGE(Graphics!B1:B18)</f>
         <v>0.19999999785044373</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f>_xlfn.STDEV.S(Graphics!B1:B18)</f>
         <v>2.7294006998976121E-8</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <f>E23/D23</f>
         <v>1.3647003646163071E-7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEE6396-E1A8-4CDA-A5E9-1F2B2CBCF1A5}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+      <selection activeCell="D22" sqref="D22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5249,6 +5536,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>1.7857143575224957E-2</v>
+      </c>
       <c r="J2">
         <v>1.7857143575224957E-2</v>
       </c>
@@ -5271,6 +5561,9 @@
       </c>
       <c r="G3">
         <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1.8181814592936746E-2</v>
       </c>
       <c r="J3">
         <v>1.8181814592936746E-2</v>
@@ -5295,6 +5588,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>1.7857140636906424E-2</v>
+      </c>
       <c r="J4">
         <v>1.7857140636906424E-2</v>
       </c>
@@ -5318,6 +5614,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>1.8518518026806752E-2</v>
+      </c>
       <c r="J5">
         <v>1.8518518026806752E-2</v>
       </c>
@@ -5341,6 +5640,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>1.8181816837754435E-2</v>
+      </c>
       <c r="J6">
         <v>1.8181816837754435E-2</v>
       </c>
@@ -5364,6 +5666,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>1.8867924828121982E-2</v>
+      </c>
       <c r="J7">
         <v>1.8867924828121982E-2</v>
       </c>
@@ -5387,6 +5692,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>1.7857142247427363E-2</v>
+      </c>
       <c r="J8">
         <v>1.7857142247427363E-2</v>
       </c>
@@ -5410,6 +5718,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>1.8181822065198583E-2</v>
+      </c>
       <c r="J9">
         <v>1.8181822065198583E-2</v>
       </c>
@@ -5433,6 +5744,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>-2.3368563078069993E-2</v>
+      </c>
       <c r="J10">
         <v>-2.3368563078069993E-2</v>
       </c>
@@ -5456,6 +5770,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>1.8518517647954796E-2</v>
+      </c>
       <c r="J11">
         <v>1.8518517647954796E-2</v>
       </c>
@@ -5479,6 +5796,9 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>1.8518518959257779E-2</v>
+      </c>
       <c r="J12">
         <v>1.8518518959257779E-2</v>
       </c>
@@ -5502,6 +5822,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>1.7857140269646982E-2</v>
+      </c>
       <c r="J13">
         <v>1.7857140269646982E-2</v>
       </c>
@@ -5525,6 +5848,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>1.8867927180430556E-2</v>
+      </c>
       <c r="J14">
         <v>1.8867927180430556E-2</v>
       </c>
@@ -5548,6 +5874,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>1.9230769137272553E-2</v>
+      </c>
       <c r="J15">
         <v>1.9230769137272553E-2</v>
       </c>
@@ -5571,6 +5900,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>1.9230769848798877E-2</v>
+      </c>
       <c r="J16">
         <v>1.9230769848798877E-2</v>
       </c>
@@ -5594,6 +5926,9 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>-3.5020313529517998E-3</v>
+      </c>
       <c r="J17">
         <v>-3.5020313529517998E-3</v>
       </c>
@@ -5617,6 +5952,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>1.8518520515633307E-2</v>
+      </c>
       <c r="J18">
         <v>1.8518520515633307E-2</v>
       </c>
@@ -5640,8 +5978,37 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>1.8181815687926629E-2</v>
+      </c>
       <c r="J19">
         <v>1.8181815687926629E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
+        <f>AVERAGE(I2:I19)</f>
+        <v>1.4864261534793165E-2</v>
+      </c>
+      <c r="E23" s="6">
+        <f>_xlfn.STDEV.S(I2:I19)</f>
+        <v>1.085337965710105E-2</v>
+      </c>
+      <c r="F23" s="7">
+        <f>E23/D23</f>
+        <v>0.73016608539188188</v>
       </c>
     </row>
   </sheetData>
@@ -5654,7 +6021,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I19"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5708,6 +6075,9 @@
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>2.4154588038493856E-3</v>
+      </c>
       <c r="J2">
         <v>2.4154588038493856E-3</v>
       </c>
@@ -5730,6 +6100,9 @@
       </c>
       <c r="G3">
         <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2.5252531623796027E-3</v>
       </c>
       <c r="J3">
         <v>2.5252531623796027E-3</v>
@@ -5754,6 +6127,9 @@
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="I4">
+        <v>3.3004551683633505E-3</v>
+      </c>
       <c r="J4">
         <v>3.3004551683633505E-3</v>
       </c>
@@ -5777,6 +6153,9 @@
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>2.4272535491575201E-3</v>
+      </c>
       <c r="J5">
         <v>2.4272535491575201E-3</v>
       </c>
@@ -5800,6 +6179,9 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6">
+        <v>2.1505374188233732E-3</v>
+      </c>
       <c r="J6">
         <v>2.1505374188233732E-3</v>
       </c>
@@ -5823,6 +6205,9 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="I7">
+        <v>2.5906733519125724E-3</v>
+      </c>
       <c r="J7">
         <v>2.5906733519125724E-3</v>
       </c>
@@ -5846,6 +6231,9 @@
       <c r="G8">
         <v>0</v>
       </c>
+      <c r="I8">
+        <v>2.5510203891771555E-3</v>
+      </c>
       <c r="J8">
         <v>2.5510203891771555E-3</v>
       </c>
@@ -5869,6 +6257,9 @@
       <c r="G9">
         <v>0</v>
       </c>
+      <c r="I9">
+        <v>2.6455027537002221E-3</v>
+      </c>
       <c r="J9">
         <v>2.6455027537002221E-3</v>
       </c>
@@ -5892,6 +6283,9 @@
       <c r="G10">
         <v>0</v>
       </c>
+      <c r="I10">
+        <v>-2.1886529539072966E-3</v>
+      </c>
       <c r="J10">
         <v>-2.1886529539072966E-3</v>
       </c>
@@ -5915,6 +6309,9 @@
       <c r="G11">
         <v>0</v>
       </c>
+      <c r="I11">
+        <v>2.7624310933208962E-3</v>
+      </c>
       <c r="J11">
         <v>2.7624310933208962E-3</v>
       </c>
@@ -5938,6 +6335,9 @@
       <c r="G12">
         <v>0</v>
       </c>
+      <c r="I12">
+        <v>2.3529413626457423E-3</v>
+      </c>
       <c r="J12">
         <v>2.3529413626457423E-3</v>
       </c>
@@ -5961,6 +6361,9 @@
       <c r="G13">
         <v>0</v>
       </c>
+      <c r="I13">
+        <v>2.3752969312761324E-3</v>
+      </c>
       <c r="J13">
         <v>2.3752969312761324E-3</v>
       </c>
@@ -5984,6 +6387,9 @@
       <c r="G14">
         <v>0</v>
       </c>
+      <c r="I14">
+        <v>2.4752496018832677E-3</v>
+      </c>
       <c r="J14">
         <v>2.4752496018832677E-3</v>
       </c>
@@ -6007,6 +6413,9 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="I15">
+        <v>2.0618554179072462E-3</v>
+      </c>
       <c r="J15">
         <v>2.0618554179072462E-3</v>
       </c>
@@ -6030,6 +6439,9 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="I16">
+        <v>3.571428460437058E-3</v>
+      </c>
       <c r="J16">
         <v>3.571428460437058E-3</v>
       </c>
@@ -6053,6 +6465,9 @@
       <c r="G17">
         <v>0</v>
       </c>
+      <c r="I17">
+        <v>-2.3875306029426033E-2</v>
+      </c>
       <c r="J17">
         <v>-2.3875306029426033E-2</v>
       </c>
@@ -6076,6 +6491,9 @@
       <c r="G18">
         <v>0</v>
       </c>
+      <c r="I18">
+        <v>3.9682541389385257E-3</v>
+      </c>
       <c r="J18">
         <v>3.9682541389385257E-3</v>
       </c>
@@ -6099,31 +6517,35 @@
       <c r="G19">
         <v>0</v>
       </c>
+      <c r="I19">
+        <v>2.7397269621938464E-3</v>
+      </c>
       <c r="J19">
         <v>2.7397269621938464E-3</v>
       </c>
     </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D23">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="5">
         <f>AVERAGE(Graphics!D1:D18)</f>
         <v>9.3607664347958698E-4</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <f>_xlfn.STDEV.S(Graphics!D1:D18)</f>
         <v>6.3156322204699286E-3</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="7">
         <f>E23/D23</f>
         <v>6.7469178559924758</v>
       </c>
@@ -6137,8 +6559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FD4EF-F283-43A7-89D5-9F0C79F3B9B0}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/linreg_analysis/linreg.xlsx
+++ b/linreg_analysis/linreg.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69DE65A-AD8D-42C0-9100-F2A67D9297B0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF0CCF-B597-4B35-829D-05B6E9DE4AB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Lobe" sheetId="2" r:id="rId2"/>
     <sheet name="Sublobe" sheetId="4" r:id="rId3"/>
     <sheet name="NearAcini" sheetId="3" r:id="rId4"/>
-    <sheet name="Graphics" sheetId="5" r:id="rId5"/>
+    <sheet name="Count" sheetId="6" r:id="rId5"/>
+    <sheet name="Graphics" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$J$55</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$D$1:$D$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$A$1:$A$54</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Graphics!$B$1:$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$C$1:$C$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$A$1:$A$54</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$D$1:$D$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$C$1:$C$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="38">
   <si>
     <t>m01</t>
   </si>
@@ -133,6 +134,24 @@
   </si>
   <si>
     <t>REL_SD</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Normalized Critical Volume</t>
+  </si>
+  <si>
+    <t>lobe</t>
+  </si>
+  <si>
+    <t>acini</t>
+  </si>
+  <si>
+    <t>sublobes</t>
+  </si>
+  <si>
+    <t>Sample</t>
   </si>
 </sst>
 </file>
@@ -318,6 +337,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -327,8 +348,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,7 +370,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -475,7 +494,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -537,7 +556,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4874,12 +4893,13 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14:X16"/>
+      <selection activeCell="N3" sqref="N3:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -4907,6 +4927,12 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -4933,6 +4959,13 @@
       <c r="J2">
         <v>0.20000000811224466</v>
       </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <f>I2*L2</f>
+        <v>1.0000000405612233</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -4958,6 +4991,13 @@
       </c>
       <c r="J3">
         <v>0.19999992966361474</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="0">I3*L3</f>
+        <v>0.99999964831807375</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -4985,6 +5025,13 @@
       <c r="J4">
         <v>0.20000000000000023</v>
       </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000011</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -5011,6 +5058,13 @@
       <c r="J5">
         <v>0.1999999833873638</v>
       </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>0.999999916936819</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -5037,6 +5091,13 @@
       <c r="J6">
         <v>0.19999998360305424</v>
       </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>0.99999991801527122</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5063,6 +5124,13 @@
       <c r="J7">
         <v>0.19999996494552705</v>
       </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0.99999982472763527</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5089,6 +5157,13 @@
       <c r="J8">
         <v>0.19999997766440211</v>
       </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0.99999988832201059</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5115,6 +5190,13 @@
       <c r="J9">
         <v>0.2</v>
       </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5141,6 +5223,13 @@
       <c r="J10">
         <v>0.19999998932394489</v>
       </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0.99999994661972447</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -5167,6 +5256,13 @@
       <c r="J11">
         <v>0.19999999999999946</v>
       </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999734</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -5193,6 +5289,13 @@
       <c r="J12">
         <v>0.20000002901372618</v>
       </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>1.0000001450686309</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5219,6 +5322,13 @@
       <c r="J13">
         <v>0.2000000450487332</v>
       </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1.0000002252436659</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5245,21 +5355,28 @@
       <c r="J14">
         <v>0.20000004223783407</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>1.0000002111891704</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="10" t="s">
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="11"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="11" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W14" s="11"/>
-      <c r="X14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5286,13 +5403,20 @@
       <c r="J15">
         <v>0.2000000209461337</v>
       </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>1.0000001047306686</v>
+      </c>
       <c r="P15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="Q15" t="s">
         <v>30</v>
       </c>
-      <c r="R15" s="13" t="s">
+      <c r="R15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="S15" t="s">
@@ -5301,7 +5425,7 @@
       <c r="T15" t="s">
         <v>30</v>
       </c>
-      <c r="U15" s="13" t="s">
+      <c r="U15" s="10" t="s">
         <v>31</v>
       </c>
       <c r="V15" t="s">
@@ -5339,13 +5463,20 @@
       <c r="J16">
         <v>0.20000000576787552</v>
       </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1.0000000288393776</v>
+      </c>
       <c r="P16" s="5">
         <v>0.19999999785044373</v>
       </c>
       <c r="Q16" s="6">
         <v>2.7294006998976121E-8</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="11">
         <v>1.3647003646163071E-7</v>
       </c>
       <c r="S16" s="6">
@@ -5354,7 +5485,7 @@
       <c r="T16" s="6">
         <v>1.085337965710105E-2</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="11">
         <v>0.73016608539188188</v>
       </c>
       <c r="V16" s="6">
@@ -5367,7 +5498,7 @@
         <v>6.7469178559924758</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5392,8 +5523,15 @@
       <c r="J17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5556,15 @@
       <c r="J18">
         <v>0.19999999586544814</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>0.99999997932724072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5444,9 +5589,16 @@
       <c r="J19">
         <v>0.19999998572808456</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>0.99999992864042275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
@@ -5457,7 +5609,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>AVERAGE(Graphics!B1:B18)</f>
         <v>0.19999999785044373</v>
@@ -5478,20 +5630,25 @@
     <mergeCell ref="V14:X14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEE6396-E1A8-4CDA-A5E9-1F2B2CBCF1A5}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:F23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14:V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -5516,8 +5673,14 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -5537,13 +5700,22 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <f>D2/(1-C2)</f>
         <v>1.7857143575224957E-2</v>
       </c>
       <c r="J2">
+        <f>I2</f>
         <v>1.7857143575224957E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>56</v>
+      </c>
+      <c r="M2">
+        <f>I2*L2</f>
+        <v>1.0000000402125977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5563,13 +5735,22 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <f>D3/(1-C3)</f>
         <v>1.8181814592936746E-2</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J19" si="0">I3</f>
         <v>1.8181814592936746E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="1">I3*L3</f>
+        <v>0.99999980261152099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5589,13 +5770,22 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <f>D4/(1-C4)</f>
         <v>1.7857140636906424E-2</v>
       </c>
       <c r="J4">
+        <f t="shared" si="0"/>
         <v>1.7857140636906424E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>56</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0.99999987566675974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -5615,13 +5805,22 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f>D5/(1-C5)</f>
         <v>1.8518518026806752E-2</v>
       </c>
       <c r="J5">
+        <f t="shared" si="0"/>
         <v>1.8518518026806752E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>54</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.99999997344756464</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -5641,13 +5840,22 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <f>D6/(1-C6)</f>
         <v>1.8181816837754435E-2</v>
       </c>
       <c r="J6">
+        <f t="shared" si="0"/>
         <v>1.8181816837754435E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>55</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.99999992607649391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -5667,13 +5875,22 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <f>D7/(1-C7)</f>
         <v>1.8867924828121982E-2</v>
       </c>
       <c r="J7">
+        <f t="shared" si="0"/>
         <v>1.8867924828121982E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>53</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1.0000000158904649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -5693,13 +5910,22 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f>D8/(1-C8)</f>
         <v>1.7857142247427363E-2</v>
       </c>
       <c r="J8">
+        <f t="shared" si="0"/>
         <v>1.7857142247427363E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>56</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.99999996585593232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -5719,13 +5945,22 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <f>D9/(1-C9)</f>
         <v>1.8181822065198583E-2</v>
       </c>
       <c r="J9">
+        <f t="shared" si="0"/>
         <v>1.8181822065198583E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>55</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1.0000002135859221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5733,7 +5968,7 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.92173455449999997</v>
+        <v>1.0951054</v>
       </c>
       <c r="D10">
         <v>-1.8289510000000001E-3</v>
@@ -5745,13 +5980,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-2.3368563078069993E-2</v>
+        <f>D10/(1-C10)</f>
+        <v>1.9230779745419292E-2</v>
       </c>
       <c r="J10">
-        <v>-2.3368563078069993E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.9230779745419292E-2</v>
+      </c>
+      <c r="L10">
+        <v>52</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1.0000005467618032</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5771,13 +6015,22 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <f>D11/(1-C11)</f>
         <v>1.8518517647954796E-2</v>
       </c>
       <c r="J11">
+        <f t="shared" si="0"/>
         <v>1.8518517647954796E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>54</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0.99999995298955902</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -5797,13 +6050,22 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <f>D12/(1-C12)</f>
         <v>1.8518518959257779E-2</v>
       </c>
       <c r="J12">
+        <f t="shared" si="0"/>
         <v>1.8518518959257779E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>1.00000002379992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -5823,13 +6085,22 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <f>D13/(1-C13)</f>
         <v>1.7857140269646982E-2</v>
       </c>
       <c r="J13">
+        <f t="shared" si="0"/>
         <v>1.7857140269646982E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>56</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.99999985510023104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -5849,13 +6120,22 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <f>D14/(1-C14)</f>
         <v>1.8867927180430556E-2</v>
       </c>
       <c r="J14">
+        <f t="shared" si="0"/>
         <v>1.8867927180430556E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>53</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1.0000001405628194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5875,13 +6155,22 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <f>D15/(1-C15)</f>
         <v>1.9230769137272553E-2</v>
       </c>
       <c r="J15">
+        <f t="shared" si="0"/>
         <v>1.9230769137272553E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>52</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.99999999513817273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5901,13 +6190,22 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <f>D16/(1-C16)</f>
         <v>1.9230769848798877E-2</v>
       </c>
       <c r="J16">
+        <f t="shared" si="0"/>
         <v>1.9230769848798877E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>52</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>1.0000000321375415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -5915,7 +6213,7 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>0.71934074800000003</v>
+        <v>1.0511096</v>
       </c>
       <c r="D17">
         <v>-9.8287750000000001E-4</v>
@@ -5927,13 +6225,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-3.5020313529517998E-3</v>
+        <f>D17/(1-C17)</f>
+        <v>1.923078051872839E-2</v>
       </c>
       <c r="J17">
-        <v>-3.5020313529517998E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1.923078051872839E-2</v>
+      </c>
+      <c r="L17">
+        <v>52</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1.0000005869738762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -5953,13 +6260,22 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <f>D18/(1-C18)</f>
         <v>1.8518520515633307E-2</v>
       </c>
       <c r="J18">
+        <f t="shared" si="0"/>
         <v>1.8518520515633307E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1.0000001078441987</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -5979,14 +6295,23 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <f>D19/(1-C19)</f>
         <v>1.8181815687926629E-2</v>
       </c>
       <c r="J19">
+        <f t="shared" si="0"/>
         <v>1.8181815687926629E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>55</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.99999986283596465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
@@ -5997,18 +6322,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>AVERAGE(I2:I19)</f>
-        <v>1.4864261534793165E-2</v>
+        <v>1.8493825684524803E-2</v>
       </c>
       <c r="E23" s="6">
-        <f>_xlfn.STDEV.S(I2:I19)</f>
-        <v>1.085337965710105E-2</v>
+        <f>STDEVA(I2:I19)</f>
+        <v>5.1252432815013758E-4</v>
       </c>
       <c r="F23" s="7">
         <f>E23/D23</f>
-        <v>0.73016608539188188</v>
+        <v>2.7713266951521331E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6018,19 +6343,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F788A3C-91D6-471D-BCD6-48BAB5FD5511}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -6055,8 +6381,14 @@
       <c r="J1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6076,13 +6408,22 @@
         <v>0</v>
       </c>
       <c r="I2">
+        <f>D2/(1-C2)</f>
         <v>2.4154588038493856E-3</v>
       </c>
       <c r="J2">
+        <f>I2</f>
         <v>2.4154588038493856E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>414</v>
+      </c>
+      <c r="M2">
+        <f>I2*L2</f>
+        <v>0.99999994479364562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6102,13 +6443,22 @@
         <v>0</v>
       </c>
       <c r="I3">
+        <f t="shared" ref="I3:I19" si="0">D3/(1-C3)</f>
         <v>2.5252531623796027E-3</v>
       </c>
       <c r="J3">
+        <f t="shared" ref="J3:J19" si="1">I3</f>
         <v>2.5252531623796027E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>396</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M19" si="2">I3*L3</f>
+        <v>1.0000002523023226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6128,13 +6478,22 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <f t="shared" si="0"/>
         <v>3.3004551683633505E-3</v>
       </c>
       <c r="J4">
+        <f t="shared" si="1"/>
         <v>3.3004551683633505E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>303</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>1.0000379160140953</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -6154,13 +6513,22 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" si="0"/>
         <v>2.4272535491575201E-3</v>
       </c>
       <c r="J5">
+        <f t="shared" si="1"/>
         <v>2.4272535491575201E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>412</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>1.0000284622528983</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -6180,13 +6548,22 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="0"/>
         <v>2.1505374188233732E-3</v>
       </c>
       <c r="J6">
+        <f t="shared" si="1"/>
         <v>2.1505374188233732E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>465</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>0.99999989975286852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -6206,13 +6583,22 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="0"/>
         <v>2.5906733519125724E-3</v>
       </c>
       <c r="J7">
+        <f t="shared" si="1"/>
         <v>2.5906733519125724E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>386</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>0.99999991383825293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6232,13 +6618,22 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" si="0"/>
         <v>2.5510203891771555E-3</v>
       </c>
       <c r="J8">
+        <f t="shared" si="1"/>
         <v>2.5510203891771555E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>392</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>0.99999999255744498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -6258,13 +6653,22 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="0"/>
         <v>2.6455027537002221E-3</v>
       </c>
       <c r="J9">
+        <f t="shared" si="1"/>
         <v>2.6455027537002221E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>378</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>1.000000040898684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6272,7 +6676,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>1.0951054389999999</v>
+        <v>0.92173459999999996</v>
       </c>
       <c r="D10">
         <v>2.081528E-4</v>
@@ -6284,13 +6688,22 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-2.1886529539072966E-3</v>
+        <f t="shared" si="0"/>
+        <v>2.6595762623074807E-3</v>
       </c>
       <c r="J10">
-        <v>-2.1886529539072966E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>2.6595762623074807E-3</v>
+      </c>
+      <c r="L10">
+        <v>376</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>1.0000006746276127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -6310,13 +6723,22 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <f t="shared" si="0"/>
         <v>2.7624310933208962E-3</v>
       </c>
       <c r="J11">
+        <f t="shared" si="1"/>
         <v>2.7624310933208962E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>362</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.0000000557821644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -6336,13 +6758,22 @@
         <v>0</v>
       </c>
       <c r="I12">
+        <f t="shared" si="0"/>
         <v>2.3529413626457423E-3</v>
       </c>
       <c r="J12">
+        <f t="shared" si="1"/>
         <v>2.3529413626457423E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>425</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>1.0000000791244406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -6362,13 +6793,22 @@
         <v>0</v>
       </c>
       <c r="I13">
+        <f t="shared" si="0"/>
         <v>2.3752969312761324E-3</v>
       </c>
       <c r="J13">
+        <f t="shared" si="1"/>
         <v>2.3752969312761324E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>421</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.0000000080672518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -6388,13 +6828,22 @@
         <v>0</v>
       </c>
       <c r="I14">
+        <f t="shared" si="0"/>
         <v>2.4752496018832677E-3</v>
       </c>
       <c r="J14">
+        <f t="shared" si="1"/>
         <v>2.4752496018832677E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>404</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>1.0000008391608401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -6414,13 +6863,22 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <f t="shared" si="0"/>
         <v>2.0618554179072462E-3</v>
       </c>
       <c r="J15">
+        <f t="shared" si="1"/>
         <v>2.0618554179072462E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>485</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>0.99999987768501442</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -6440,13 +6898,22 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <f t="shared" si="0"/>
         <v>3.571428460437058E-3</v>
       </c>
       <c r="J16">
+        <f t="shared" si="1"/>
         <v>3.571428460437058E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>280</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>0.99999996892237619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -6454,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>1.0511096276</v>
+        <v>0.71934070000000006</v>
       </c>
       <c r="D17">
         <v>1.2202580000000001E-3</v>
@@ -6466,13 +6933,22 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>-2.3875306029426033E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.3478267066154597E-3</v>
       </c>
       <c r="J17">
-        <v>-2.3875306029426033E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>4.3478267066154597E-3</v>
+      </c>
+      <c r="L17">
+        <v>230</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>1.0000001425215557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -6492,13 +6968,22 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <f t="shared" si="0"/>
         <v>3.9682541389385257E-3</v>
       </c>
       <c r="J18">
+        <f t="shared" si="1"/>
         <v>3.9682541389385257E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>252</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>1.0000000430125084</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -6518,14 +7003,23 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <f t="shared" si="0"/>
         <v>2.7397269621938464E-3</v>
       </c>
       <c r="J19">
+        <f t="shared" si="1"/>
         <v>2.7397269621938464E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>365</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>1.0000003412007539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
@@ -6536,7 +7030,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="5">
         <f>AVERAGE(Graphics!D1:D18)</f>
         <v>9.3607664347958698E-4</v>
@@ -6556,11 +7050,292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC18A2-90FE-4B42-B5FC-A5645EF002B9}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>414</v>
+      </c>
+      <c r="D2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>396</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>303</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>412</v>
+      </c>
+      <c r="D5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>465</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>386</v>
+      </c>
+      <c r="D7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>392</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>378</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>376</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>362</v>
+      </c>
+      <c r="D11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>425</v>
+      </c>
+      <c r="D12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>421</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>404</v>
+      </c>
+      <c r="D14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>485</v>
+      </c>
+      <c r="D15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>280</v>
+      </c>
+      <c r="D16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>230</v>
+      </c>
+      <c r="D17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>252</v>
+      </c>
+      <c r="D18">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>365</v>
+      </c>
+      <c r="D19">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523FD4EF-F283-43A7-89D5-9F0C79F3B9B0}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/linreg_analysis/linreg.xlsx
+++ b/linreg_analysis/linreg.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDF0CCF-B597-4B35-829D-05B6E9DE4AB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07291C-3A7D-45E0-8F5F-5056F7E3954D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="975" yWindow="2595" windowWidth="24360" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$J$55</definedName>
     <definedName name="_xlchart.v1.0" hidden="1">Graphics!$A$1:$A$54</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Graphics!$B$1:$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$D$1:$D$18</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Graphics!$D$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -494,7 +494,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -556,7 +556,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4892,8 +4892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76FCD56-F02F-435D-A78D-F55FE0F23D77}">
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>D2/(1-C2)</f>
+        <f t="shared" ref="I2:I19" si="0">D2/(1-C2)</f>
         <v>1.7857143575224957E-2</v>
       </c>
       <c r="J2">
@@ -5735,18 +5735,18 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>D3/(1-C3)</f>
+        <f t="shared" si="0"/>
         <v>1.8181814592936746E-2</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J19" si="0">I3</f>
+        <f t="shared" ref="J3:J19" si="1">I3</f>
         <v>1.8181814592936746E-2</v>
       </c>
       <c r="L3">
         <v>55</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M19" si="1">I3*L3</f>
+        <f t="shared" ref="M3:M19" si="2">I3*L3</f>
         <v>0.99999980261152099</v>
       </c>
     </row>
@@ -5770,18 +5770,18 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>D4/(1-C4)</f>
+        <f t="shared" si="0"/>
         <v>1.7857140636906424E-2</v>
       </c>
       <c r="J4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857140636906424E-2</v>
       </c>
       <c r="L4">
         <v>56</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999987566675974</v>
       </c>
     </row>
@@ -5805,18 +5805,18 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>D5/(1-C5)</f>
+        <f t="shared" si="0"/>
         <v>1.8518518026806752E-2</v>
       </c>
       <c r="J5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518518026806752E-2</v>
       </c>
       <c r="L5">
         <v>54</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999997344756464</v>
       </c>
     </row>
@@ -5840,18 +5840,18 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>D6/(1-C6)</f>
+        <f t="shared" si="0"/>
         <v>1.8181816837754435E-2</v>
       </c>
       <c r="J6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8181816837754435E-2</v>
       </c>
       <c r="L6">
         <v>55</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999992607649391</v>
       </c>
     </row>
@@ -5875,18 +5875,18 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>D7/(1-C7)</f>
+        <f t="shared" si="0"/>
         <v>1.8867924828121982E-2</v>
       </c>
       <c r="J7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8867924828121982E-2</v>
       </c>
       <c r="L7">
         <v>53</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000158904649</v>
       </c>
     </row>
@@ -5910,18 +5910,18 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>D8/(1-C8)</f>
+        <f t="shared" si="0"/>
         <v>1.7857142247427363E-2</v>
       </c>
       <c r="J8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857142247427363E-2</v>
       </c>
       <c r="L8">
         <v>56</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999996585593232</v>
       </c>
     </row>
@@ -5945,18 +5945,18 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>D9/(1-C9)</f>
+        <f t="shared" si="0"/>
         <v>1.8181822065198583E-2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8181822065198583E-2</v>
       </c>
       <c r="L9">
         <v>55</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000002135859221</v>
       </c>
     </row>
@@ -5980,18 +5980,18 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>D10/(1-C10)</f>
+        <f t="shared" si="0"/>
         <v>1.9230779745419292E-2</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9230779745419292E-2</v>
       </c>
       <c r="L10">
         <v>52</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000005467618032</v>
       </c>
     </row>
@@ -6015,18 +6015,18 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>D11/(1-C11)</f>
+        <f t="shared" si="0"/>
         <v>1.8518517647954796E-2</v>
       </c>
       <c r="J11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518517647954796E-2</v>
       </c>
       <c r="L11">
         <v>54</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999995298955902</v>
       </c>
     </row>
@@ -6050,18 +6050,18 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>D12/(1-C12)</f>
+        <f t="shared" si="0"/>
         <v>1.8518518959257779E-2</v>
       </c>
       <c r="J12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518518959257779E-2</v>
       </c>
       <c r="L12">
         <v>54</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.00000002379992</v>
       </c>
     </row>
@@ -6085,18 +6085,18 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>D13/(1-C13)</f>
+        <f t="shared" si="0"/>
         <v>1.7857140269646982E-2</v>
       </c>
       <c r="J13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7857140269646982E-2</v>
       </c>
       <c r="L13">
         <v>56</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999985510023104</v>
       </c>
     </row>
@@ -6120,18 +6120,18 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>D14/(1-C14)</f>
+        <f t="shared" si="0"/>
         <v>1.8867927180430556E-2</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8867927180430556E-2</v>
       </c>
       <c r="L14">
         <v>53</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000001405628194</v>
       </c>
     </row>
@@ -6155,18 +6155,18 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>D15/(1-C15)</f>
+        <f t="shared" si="0"/>
         <v>1.9230769137272553E-2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9230769137272553E-2</v>
       </c>
       <c r="L15">
         <v>52</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999999513817273</v>
       </c>
     </row>
@@ -6190,18 +6190,18 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>D16/(1-C16)</f>
+        <f t="shared" si="0"/>
         <v>1.9230769848798877E-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9230769848798877E-2</v>
       </c>
       <c r="L16">
         <v>52</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000000321375415</v>
       </c>
     </row>
@@ -6225,18 +6225,18 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>D17/(1-C17)</f>
+        <f t="shared" si="0"/>
         <v>1.923078051872839E-2</v>
       </c>
       <c r="J17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.923078051872839E-2</v>
       </c>
       <c r="L17">
         <v>52</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000005869738762</v>
       </c>
     </row>
@@ -6260,18 +6260,18 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>D18/(1-C18)</f>
+        <f t="shared" si="0"/>
         <v>1.8518520515633307E-2</v>
       </c>
       <c r="J18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8518520515633307E-2</v>
       </c>
       <c r="L18">
         <v>54</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0000001078441987</v>
       </c>
     </row>
@@ -6295,18 +6295,18 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>D19/(1-C19)</f>
+        <f t="shared" si="0"/>
         <v>1.8181815687926629E-2</v>
       </c>
       <c r="J19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8181815687926629E-2</v>
       </c>
       <c r="L19">
         <v>55</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.99999986283596465</v>
       </c>
     </row>
@@ -6345,7 +6345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F788A3C-91D6-471D-BCD6-48BAB5FD5511}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>

--- a/linreg_analysis/linreg.xlsx
+++ b/linreg_analysis/linreg.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F07291C-3A7D-45E0-8F5F-5056F7E3954D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BD0C1-E16C-417B-9786-DF3CAFBD5092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2595" windowWidth="24360" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Summary!$A$1:$J$55</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$A$1:$A$54</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Graphics!$B$1:$B$18</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Graphics!$B$1:$B$18</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Graphics!$C$1:$C$18</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Graphics!$A$1:$A$54</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Graphics!$D$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -370,7 +370,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -432,7 +432,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -494,7 +494,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4893,7 +4893,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
